--- a/Microgrid Setup/timeseries_inputs.xlsx
+++ b/Microgrid Setup/timeseries_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banderso2\Documents\MIRACL\Autonomous-Microgrid-Control-with-Forecasting\Microgrid Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A230252-A6C2-46B0-BD68-1F8BF4E11FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5355C729-D549-403A-9B4F-DD55DCAEE197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A83621FA-62A6-4AD3-9D39-D6578664D69A}"/>
   </bookViews>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F20080-F0BF-4011-A1F5-7DD4F7E0269F}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,8 +426,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B7" ca="1" si="0" xml:space="preserve"> 10 + 3 * RAND()</f>
-        <v>11.25613669062782</v>
+        <f ca="1" xml:space="preserve"> 14 + RAND() - 0.1</f>
+        <v>14.442726921131699</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,8 +435,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.412949470700662</v>
+        <f ca="1" xml:space="preserve"> B2-0.1</f>
+        <v>14.3427269211317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,8 +444,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.487751252060235</v>
+        <f t="shared" ref="B4:B67" ca="1" si="0" xml:space="preserve"> B3-0.1</f>
+        <v>14.2427269211317</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.401281975980815</v>
+        <v>14.1427269211317</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.603839593503228</v>
+        <v>14.042726921131701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.597670917609291</v>
+        <v>13.942726921131701</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,8 +480,8 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B11" ca="1" si="1" xml:space="preserve"> 10 + 3 * RAND()</f>
-        <v>12.814582648068086</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.842726921131701</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,8 +489,8 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.393996246493643</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.742726921131702</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,8 +498,8 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.336552299094429</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.642726921131702</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,8 +507,8 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.181978671673624</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.542726921131703</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,8 +516,8 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f ca="1" xml:space="preserve"> 10 + 3 * RAND()</f>
-        <v>12.474227485869143</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.442726921131703</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,8 +525,8 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B37" ca="1" si="2" xml:space="preserve"> 10 + 3 * RAND()</f>
-        <v>11.298121502785376</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.342726921131703</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,8 +534,8 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.065189675133514</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.242726921131704</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,8 +543,8 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.583543081648811</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.142726921131704</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,8 +552,8 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.196222821331517</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.042726921131704</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,8 +561,8 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.994943464414726</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.942726921131705</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,8 +570,8 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.481742181891612</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.842726921131705</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,8 +579,8 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.41772394924814</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.742726921131705</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,8 +588,8 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.48229970380112</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.642726921131706</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,8 +597,8 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.607583002958361</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.542726921131706</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,8 +606,8 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.305483253741709</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.442726921131706</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,8 +615,8 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.634114106719</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.342726921131707</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,8 +624,8 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.494252602483526</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.242726921131707</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,8 +633,8 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.279106784545977</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.142726921131707</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,8 +642,8 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.753341195925385</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.042726921131708</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,8 +651,8 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.542240220850228</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.942726921131708</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,8 +660,8 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.384011713275099</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.842726921131709</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,8 +669,8 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.193133714356195</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.742726921131709</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,8 +678,8 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.656805070242855</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.642726921131709</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,8 +687,8 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.545823074584735</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.54272692113171</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,8 +696,8 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.457998011983452</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.44272692113171</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,8 +705,8 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.805612624508559</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.34272692113171</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,8 +714,8 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.523115733731153</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.242726921131711</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,8 +723,8 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.973013283958073</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.142726921131711</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,8 +732,8 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.028747149468192</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.042726921131711</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,8 +741,8 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.523130728426372</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.942726921131712</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +750,8 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.842726921131712</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +759,8 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.742726921131712</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +768,8 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.642726921131713</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +777,8 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.542726921131713</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +786,8 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.442726921131714</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +795,8 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.342726921131714</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +804,8 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.242726921131714</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +813,8 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.142726921131715</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +822,8 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.042726921131715</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +831,8 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9427269211317153</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +840,8 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8427269211317157</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +849,8 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.742726921131716</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +858,8 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6427269211317164</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +867,8 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5427269211317167</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +876,8 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4427269211317171</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +885,8 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3427269211317174</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +894,8 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2427269211317178</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +903,8 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1427269211317181</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +912,8 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0427269211317185</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +921,8 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9427269211317189</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +930,8 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8427269211317192</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +939,8 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7427269211317196</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +948,8 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6427269211317199</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +957,8 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5427269211317203</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +966,8 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4427269211317206</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +975,8 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.342726921131721</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +984,8 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2427269211317213</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +993,8 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1427269211317217</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +1002,8 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0427269211317221</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +1011,8 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9427269211317224</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +1020,8 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <f t="shared" ref="B68:B102" ca="1" si="1" xml:space="preserve"> B67-0.1</f>
+        <v>7.8427269211317228</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +1029,8 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7427269211317231</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1038,8 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6427269211317235</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1047,8 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.5427269211317238</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1056,8 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4427269211317242</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1065,8 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3427269211317245</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1074,8 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.2427269211317249</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1083,8 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1427269211317252</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1092,8 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0427269211317256</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1101,8 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.942726921131726</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1110,8 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.8427269211317263</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1119,8 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7427269211317267</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1128,8 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.642726921131727</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1137,8 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5427269211317274</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1146,8 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4427269211317277</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1155,8 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.3427269211317281</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1164,8 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.2427269211317284</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1173,8 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1427269211317288</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1182,8 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.0427269211317292</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1191,8 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9427269211317295</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1200,8 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.8427269211317299</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1209,8 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7427269211317302</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1218,8 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6427269211317306</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1227,8 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5427269211317309</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1236,8 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4427269211317313</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1245,8 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3427269211317316</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1254,8 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.242726921131732</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1263,8 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1427269211317324</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1272,8 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0427269211317327</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1281,8 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9427269211317331</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1290,8 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8427269211317334</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1299,8 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.7427269211317338</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1308,8 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6427269211317341</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +1317,8 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5427269211317345</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +1326,8 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4427269211317348</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1340,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B95" sqref="B2:B95"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,8 +1358,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" ca="1" si="0">980+10*RAND()</f>
-        <v>983.0362766460762</v>
+        <f ca="1">400+10*RAND()</f>
+        <v>409.20966761190994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,8 +1367,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>988.29416744698528</v>
+        <f ca="1">400+10*RAND()</f>
+        <v>403.22360708751131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,8 +1376,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>983.95987864930567</v>
+        <f t="shared" ref="B3:B66" ca="1" si="0">400+10*RAND()</f>
+        <v>407.08327067255834</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1386,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>986.92482547730185</v>
+        <v>404.13904300131878</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1395,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>989.12929754372794</v>
+        <v>406.33200778794634</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1404,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>987.59844406351237</v>
+        <v>406.03819583636448</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1413,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>984.84121554660408</v>
+        <v>403.5541336495657</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1422,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>989.20803688551018</v>
+        <v>401.21467783486275</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1431,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>988.30087596796091</v>
+        <v>407.72511603452557</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1440,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>989.54897658744426</v>
+        <v>407.07674699402406</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1449,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>987.62030935057555</v>
+        <v>404.88843167406418</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1458,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>985.18506536360894</v>
+        <v>401.66654856994779</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1467,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>983.96864345306449</v>
+        <v>406.2063215418566</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1476,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>985.23543332668476</v>
+        <v>409.65106576915883</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1485,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>989.05870504041229</v>
+        <v>400.22696402615998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1494,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>984.84185319609605</v>
+        <v>408.65351254001069</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1503,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>982.7377444563158</v>
+        <v>400.40165800786679</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1512,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>983.55463219784156</v>
+        <v>404.98519366933073</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1521,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>989.0569807451393</v>
+        <v>400.32358679362926</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1530,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>980.0695417900871</v>
+        <v>402.68938675220022</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1539,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>980.22781533887985</v>
+        <v>402.82655894012476</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1548,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>985.96922207872421</v>
+        <v>409.69166919641634</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>984.68963320334069</v>
+        <v>404.59603541726415</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1566,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>982.19776228161527</v>
+        <v>406.86075237525574</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1575,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>981.06400962556563</v>
+        <v>409.68278360271415</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1584,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>985.38316473733698</v>
+        <v>402.5845632740764</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1593,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>981.21493958287124</v>
+        <v>407.45095869831255</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1602,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>982.58008643579103</v>
+        <v>404.8115383965893</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1611,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>988.8635645020579</v>
+        <v>407.06974042816933</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1620,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>986.01488915138918</v>
+        <v>406.76399215179555</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1629,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>981.10282519279872</v>
+        <v>404.00672669256755</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1638,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>989.21299183309804</v>
+        <v>404.62188315219561</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1647,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>986.08856530129935</v>
+        <v>402.51083871732089</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1656,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>982.68763692007974</v>
+        <v>402.78865715076449</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1665,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>986.30019175074767</v>
+        <v>404.92065521994823</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1674,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>985.54863025302063</v>
+        <v>407.41428198118768</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1683,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>981.96455740650117</v>
+        <v>406.91721648629488</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1692,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>982.91336006991958</v>
+        <v>401.23811236190636</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1701,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>982.61795707509202</v>
+        <v>409.18696712604458</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1710,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>988.20158748282597</v>
+        <v>402.53147838870768</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1719,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>988.24938099957785</v>
+        <v>409.16160326779692</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1728,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>983.06275872976846</v>
+        <v>403.9778461239851</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1737,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>989.9591149454543</v>
+        <v>409.55973953560709</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1746,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>982.98583709749255</v>
+        <v>402.02059918136683</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1755,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>987.54288087452005</v>
+        <v>402.79705442487534</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>988.07871735887863</v>
+        <v>403.40859272456009</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1773,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>988.61659017889542</v>
+        <v>400.10166486827666</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1782,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>982.25689464981008</v>
+        <v>406.62318177871146</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1791,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>984.5239240641572</v>
+        <v>405.95708649201367</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1800,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>980.97938842552139</v>
+        <v>408.32116102556279</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1809,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>984.04490527348355</v>
+        <v>400.86528231502928</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1818,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>981.6179597890532</v>
+        <v>408.17676727647614</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1827,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>986.01156401622723</v>
+        <v>404.29987729803685</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1836,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>988.93567797820333</v>
+        <v>401.50449921472153</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1845,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>985.81557956621748</v>
+        <v>405.32791970654426</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1854,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>982.95629079667128</v>
+        <v>408.67842676675701</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1863,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>982.15215172723811</v>
+        <v>406.2990558852166</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1872,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>985.95459028101573</v>
+        <v>403.23200224377456</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1881,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>982.07793869449529</v>
+        <v>402.92364768313877</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1890,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>983.598048181698</v>
+        <v>406.23591867253344</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1899,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>988.78384169422634</v>
+        <v>405.21918242655875</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1843,7 +1908,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>984.5345074482392</v>
+        <v>403.83953840146751</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1917,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>984.57337724419142</v>
+        <v>409.21166744547088</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1926,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>983.8218379840489</v>
+        <v>404.35910068471361</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,8 +1934,8 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B94" ca="1" si="1">980+10*RAND()</f>
-        <v>989.04161478203389</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>404.4453428518803</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,8 +1943,8 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ca="1" si="1"/>
-        <v>985.51035388389846</v>
+        <f t="shared" ref="B67:B102" ca="1" si="1">400+10*RAND()</f>
+        <v>400.87818108430002</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +1953,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="1"/>
-        <v>984.83899177097771</v>
+        <v>405.57604784695462</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1962,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="1"/>
-        <v>980.69430281643326</v>
+        <v>408.48156510741694</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1971,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="1"/>
-        <v>988.04950880485831</v>
+        <v>408.48785023475557</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1915,7 +1980,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="1"/>
-        <v>980.02745971879449</v>
+        <v>401.70356313750125</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1989,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="1"/>
-        <v>980.82543513644782</v>
+        <v>401.38360621726326</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1998,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="1"/>
-        <v>982.32792619265524</v>
+        <v>402.37368576907261</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +2007,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="1"/>
-        <v>984.83293356651711</v>
+        <v>404.24699024431317</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +2016,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="1"/>
-        <v>982.62672892869546</v>
+        <v>405.65946173486964</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +2025,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="1"/>
-        <v>988.62992784665084</v>
+        <v>409.17084861842517</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +2034,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="1"/>
-        <v>985.15185878843215</v>
+        <v>400.08976347581103</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,7 +2043,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="1"/>
-        <v>986.23788165819178</v>
+        <v>404.68530055420678</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +2052,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="1"/>
-        <v>989.40139604450121</v>
+        <v>401.66738698039319</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +2061,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="1"/>
-        <v>984.83531311809793</v>
+        <v>409.65904716654654</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +2070,7 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="1"/>
-        <v>981.93947429850698</v>
+        <v>408.38344842382622</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2079,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="1"/>
-        <v>983.44808034030507</v>
+        <v>407.19497626660927</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2088,7 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="1"/>
-        <v>986.09886791830081</v>
+        <v>407.28559151193048</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2097,7 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="1"/>
-        <v>984.10816076734227</v>
+        <v>406.23909940838826</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2106,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="1"/>
-        <v>983.84404394411638</v>
+        <v>404.33215340321601</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2115,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="1"/>
-        <v>988.64697742559611</v>
+        <v>403.49645286132522</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +2124,7 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="1"/>
-        <v>985.10529960884867</v>
+        <v>405.18859205248168</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,7 +2133,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="1"/>
-        <v>987.74263305546526</v>
+        <v>407.66586903825709</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2142,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="1"/>
-        <v>989.08142914657628</v>
+        <v>406.21277910509923</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,7 +2151,7 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="1"/>
-        <v>980.52811722015292</v>
+        <v>401.80832241486206</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2160,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="1"/>
-        <v>982.03061492651273</v>
+        <v>400.96083009529622</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2169,7 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="1"/>
-        <v>985.15613830488439</v>
+        <v>408.24622303106719</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2178,7 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="1"/>
-        <v>982.911112439985</v>
+        <v>400.30929423215929</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,7 +2187,7 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="1"/>
-        <v>987.66251450517575</v>
+        <v>402.35124232781612</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,8 +2195,8 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B67:B102" ca="1" si="2">980+10*RAND()</f>
-        <v>983.54624280311521</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>409.29592578659316</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2139,8 +2204,8 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="2"/>
-        <v>987.75751581670113</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>407.77108897467997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,8 +2213,8 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="2"/>
-        <v>982.41720860706675</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>400.71918616994645</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,8 +2222,8 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="2"/>
-        <v>983.22386695243608</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>409.51602036436117</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,8 +2231,8 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="2"/>
-        <v>980.43284736515159</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>406.58980284360075</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,8 +2240,8 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="2"/>
-        <v>983.06762503947391</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>409.05169804430756</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,8 +2249,8 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="2"/>
-        <v>987.13225422760104</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>404.08189176800738</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,8 +2258,8 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" ca="1" si="2"/>
-        <v>989.85671311568194</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>401.22079759988088</v>
       </c>
     </row>
   </sheetData>
@@ -2206,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A2B46D-A4F9-4E83-BE15-4ED099232EEB}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,10 +2293,12 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>284400.6115</v>
+        <f>400000</f>
+        <v>400000</v>
       </c>
       <c r="C2">
-        <v>121473.76199999999</v>
+        <f ca="1">400000+10000*RAND()</f>
+        <v>403974.1995142466</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2306,12 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>284770.6545</v>
+        <f>B2+10000</f>
+        <v>410000</v>
       </c>
       <c r="C3">
-        <v>112527.12599999999</v>
+        <f t="shared" ref="B3:C34" ca="1" si="0">400000+10000*RAND()</f>
+        <v>403437.12914163381</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2319,12 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>284672.11239999998</v>
+        <f t="shared" ref="B4:B67" si="1">B3+10000</f>
+        <v>420000</v>
       </c>
       <c r="C4">
-        <v>106551.0871</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>409185.74604602356</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2332,12 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>281705.90490000002</v>
+        <f t="shared" si="1"/>
+        <v>430000</v>
       </c>
       <c r="C5">
-        <v>115768.5592</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>404611.93993858149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2345,12 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>282122.23189999996</v>
+        <f t="shared" si="1"/>
+        <v>440000</v>
       </c>
       <c r="C6">
-        <v>116040.7135</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>405086.40555317106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2358,12 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>281799.0808</v>
+        <f t="shared" si="1"/>
+        <v>450000</v>
       </c>
       <c r="C7">
-        <v>114290.71890000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408335.98524028988</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,10 +2371,12 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>281890.74900000001</v>
+        <f t="shared" si="1"/>
+        <v>460000</v>
       </c>
       <c r="C8">
-        <v>112802.66740000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>405464.20044987899</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,10 +2384,12 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>282024.33240000001</v>
+        <f t="shared" si="1"/>
+        <v>470000</v>
       </c>
       <c r="C9">
-        <v>118211.41190000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>403190.54146241961</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2397,12 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>282176.79739999998</v>
+        <f t="shared" si="1"/>
+        <v>480000</v>
       </c>
       <c r="C10">
-        <v>112272.65119999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>400556.28999637446</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2410,12 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>282369.69440000004</v>
+        <f t="shared" si="1"/>
+        <v>490000</v>
       </c>
       <c r="C11">
-        <v>115419.7907</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>405226.00715379207</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +2423,12 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>282410.88219999999</v>
+        <f t="shared" si="1"/>
+        <v>500000</v>
       </c>
       <c r="C12">
-        <v>114914.75660000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>409341.16055115592</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2436,12 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>282544.61379999999</v>
+        <f t="shared" si="1"/>
+        <v>510000</v>
       </c>
       <c r="C13">
-        <v>117686.57299999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>407087.11158392497</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2449,12 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>281578.6153</v>
+        <f t="shared" si="1"/>
+        <v>520000</v>
       </c>
       <c r="C14">
-        <v>110806.94579999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>407649.52904638363</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2462,12 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>291721.52060000005</v>
+        <f t="shared" si="1"/>
+        <v>530000</v>
       </c>
       <c r="C15">
-        <v>127913.95699999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408708.18655550579</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +2475,12 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>371093.261</v>
+        <f t="shared" si="1"/>
+        <v>540000</v>
       </c>
       <c r="C16">
-        <v>353504.86439999996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>401300.89765452023</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +2488,12 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>299396.48810000002</v>
+        <f t="shared" si="1"/>
+        <v>550000</v>
       </c>
       <c r="C17">
-        <v>137339.52930000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>400987.31632706127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +2501,12 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>337443.88689999998</v>
+        <f t="shared" si="1"/>
+        <v>560000</v>
       </c>
       <c r="C18">
-        <v>172514.34450000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>400321.29225361889</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +2514,12 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>340513.16639999999</v>
+        <f t="shared" si="1"/>
+        <v>570000</v>
       </c>
       <c r="C19">
-        <v>169963.35809999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>401265.28538796515</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +2527,12 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>345119.30940000003</v>
+        <f t="shared" si="1"/>
+        <v>580000</v>
       </c>
       <c r="C20">
-        <v>174581.48579999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>402536.89423482399</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +2540,12 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>349484.29629999999</v>
+        <f t="shared" si="1"/>
+        <v>590000</v>
       </c>
       <c r="C21">
-        <v>171071.95319999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>406173.28794759494</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +2553,12 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>349599.69650000002</v>
+        <f t="shared" si="1"/>
+        <v>600000</v>
       </c>
       <c r="C22">
-        <v>174457.5662</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408831.25990435772</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +2566,12 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>361726.71839999995</v>
+        <f t="shared" si="1"/>
+        <v>610000</v>
       </c>
       <c r="C23">
-        <v>171666.12770000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>401704.10251816077</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +2579,12 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>369943.51299999998</v>
+        <f t="shared" si="1"/>
+        <v>620000</v>
       </c>
       <c r="C24">
-        <v>167705.83609999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>402509.20203382877</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +2592,12 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>381174.36700000003</v>
+        <f t="shared" si="1"/>
+        <v>630000</v>
       </c>
       <c r="C25">
-        <v>180049.1091</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>401019.00238314748</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +2605,12 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>396573.09419999999</v>
+        <f t="shared" si="1"/>
+        <v>640000</v>
       </c>
       <c r="C26">
-        <v>191690.20009999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>405825.41120697692</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +2618,12 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>341178.26889999997</v>
+        <f t="shared" si="1"/>
+        <v>650000</v>
       </c>
       <c r="C27">
-        <v>173149.25339999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>405348.90120983357</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,10 +2631,12 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>344865.70130000002</v>
+        <f t="shared" si="1"/>
+        <v>660000</v>
       </c>
       <c r="C28">
-        <v>165740.89679999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>407418.79235525517</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +2644,12 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>328074.59580000001</v>
+        <f t="shared" si="1"/>
+        <v>670000</v>
       </c>
       <c r="C29">
-        <v>171015.95929999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>406269.7215439179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +2657,12 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>313512.82309999998</v>
+        <f t="shared" si="1"/>
+        <v>680000</v>
       </c>
       <c r="C30">
-        <v>163809.91499999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>406510.02358980366</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +2670,12 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>308957.41950000002</v>
+        <f t="shared" si="1"/>
+        <v>690000</v>
       </c>
       <c r="C31">
-        <v>161275.16620000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>405258.65214692871</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,10 +2683,12 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>308888.67810000002</v>
+        <f t="shared" si="1"/>
+        <v>700000</v>
       </c>
       <c r="C32">
-        <v>163123.4656</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408585.30764990114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,10 +2696,12 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>309022.12479999999</v>
+        <f t="shared" si="1"/>
+        <v>710000</v>
       </c>
       <c r="C33">
-        <v>170040.37760000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>400956.70180177357</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +2709,12 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>309853.38039999997</v>
+        <f t="shared" si="1"/>
+        <v>720000</v>
       </c>
       <c r="C34">
-        <v>171923.25869999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>409854.03170595481</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,10 +2722,12 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>310564.054</v>
+        <f t="shared" si="1"/>
+        <v>730000</v>
       </c>
       <c r="C35">
-        <v>165331.06409999999</v>
+        <f t="shared" ref="B35:C66" ca="1" si="2">400000+10000*RAND()</f>
+        <v>405900.53143009229</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,10 +2735,12 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>318913.14990000002</v>
+        <f t="shared" si="1"/>
+        <v>740000</v>
       </c>
       <c r="C36">
-        <v>168598.8812</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>406994.48929704033</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,10 +2748,12 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>286098.14790000004</v>
+        <f t="shared" si="1"/>
+        <v>750000</v>
       </c>
       <c r="C37">
-        <v>124300.54090000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400198.27904038172</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +2761,12 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>285771.94680000003</v>
+        <f t="shared" si="1"/>
+        <v>760000</v>
       </c>
       <c r="C38">
-        <v>117143.6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>406841.87393180217</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,10 +2774,12 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>285416.1814</v>
+        <f t="shared" si="1"/>
+        <v>770000</v>
       </c>
       <c r="C39">
-        <v>109215.804</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>404650.99087222974</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +2787,12 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>285179.03289999999</v>
+        <f t="shared" si="1"/>
+        <v>780000</v>
       </c>
       <c r="C40">
-        <v>116376.1008</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>405142.4514022342</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +2800,12 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>285359.7047</v>
+        <f t="shared" si="1"/>
+        <v>790000</v>
       </c>
       <c r="C41">
-        <v>122753.2635</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>402014.17076921189</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +2813,12 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>284844.64069999999</v>
+        <f t="shared" si="1"/>
+        <v>800000</v>
       </c>
       <c r="C42">
-        <v>115207.61599999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>403839.08302500646</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,10 +2826,12 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>285041.48310000001</v>
+        <f t="shared" si="1"/>
+        <v>810000</v>
       </c>
       <c r="C43">
-        <v>120063.5839</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>408266.94428438006</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +2839,12 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>285006.64569999999</v>
+        <f t="shared" si="1"/>
+        <v>820000</v>
       </c>
       <c r="C44">
-        <v>127085.6208</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>404385.73636403366</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +2852,12 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>285012.66750000004</v>
+        <f t="shared" si="1"/>
+        <v>830000</v>
       </c>
       <c r="C45">
-        <v>123633.12569999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>405305.98741480603</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +2865,12 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>284713.37729999999</v>
+        <f t="shared" si="1"/>
+        <v>840000</v>
       </c>
       <c r="C46">
-        <v>113999.74310000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>405952.43254776497</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +2878,12 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>284444.90830000001</v>
+        <f t="shared" si="1"/>
+        <v>850000</v>
       </c>
       <c r="C47">
-        <v>125959.68310000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400452.30726633378</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,10 +2891,12 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>284696.734</v>
+        <f t="shared" si="1"/>
+        <v>860000</v>
       </c>
       <c r="C48">
-        <v>126964.0045</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400908.71609052282</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +2904,12 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>284709.97610000003</v>
+        <f t="shared" si="1"/>
+        <v>870000</v>
       </c>
       <c r="C49">
-        <v>121011.736</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>406325.33024955186</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +2917,12 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>284314.82310000004</v>
+        <f t="shared" si="1"/>
+        <v>880000</v>
       </c>
       <c r="C50">
-        <v>119137.8268</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>403602.080367891</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +2930,12 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>284796.20929999999</v>
+        <f t="shared" si="1"/>
+        <v>890000</v>
       </c>
       <c r="C51">
-        <v>114724.1462</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>407476.83759474725</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +2943,12 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>280022.90269999998</v>
+        <f t="shared" si="1"/>
+        <v>900000</v>
       </c>
       <c r="C52">
-        <v>111877.31230000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>404820.38051293616</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +2956,12 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>280070.48989999999</v>
+        <f t="shared" si="1"/>
+        <v>910000</v>
       </c>
       <c r="C53">
-        <v>117546.35690000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>406121.94162978209</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +2969,12 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>280425.44520000002</v>
+        <f t="shared" si="1"/>
+        <v>920000</v>
       </c>
       <c r="C54">
-        <v>112856.3055</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>402544.73252400948</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,10 +2982,12 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>280753.94210000004</v>
+        <f t="shared" si="1"/>
+        <v>930000</v>
       </c>
       <c r="C55">
-        <v>108664.24530000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>408012.90792372439</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,10 +2995,12 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>280765.89679999999</v>
+        <f t="shared" si="1"/>
+        <v>940000</v>
       </c>
       <c r="C56">
-        <v>117084.0707</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>405673.66908203397</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +3008,12 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>280828.16930000001</v>
+        <f t="shared" si="1"/>
+        <v>950000</v>
       </c>
       <c r="C57">
-        <v>123505.4471</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>405087.36636129691</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,10 +3021,12 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>280301.50789999997</v>
+        <f t="shared" si="1"/>
+        <v>960000</v>
       </c>
       <c r="C58">
-        <v>116738.2672</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>405311.87589920993</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,10 +3034,12 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>280478.39569999999</v>
+        <f t="shared" si="1"/>
+        <v>970000</v>
       </c>
       <c r="C59">
-        <v>110906.3572</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>406208.73428203969</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,10 +3047,12 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>281431.03269999998</v>
+        <f t="shared" si="1"/>
+        <v>980000</v>
       </c>
       <c r="C60">
-        <v>109219.9905</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400597.21534161171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,10 +3060,12 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>280475.80160000001</v>
+        <f t="shared" si="1"/>
+        <v>990000</v>
       </c>
       <c r="C61">
-        <v>111585.0567</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>406252.8727583256</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,10 +3073,12 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>280454.53210000001</v>
+        <f t="shared" si="1"/>
+        <v>1000000</v>
       </c>
       <c r="C62">
-        <v>112452.1152</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>409992.22285241797</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +3086,12 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>280429.5845</v>
+        <f t="shared" si="1"/>
+        <v>1010000</v>
       </c>
       <c r="C63">
-        <v>119222.65710000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>404248.39597182523</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,10 +3099,12 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>280958.5379</v>
+        <f t="shared" si="1"/>
+        <v>1020000</v>
       </c>
       <c r="C64">
-        <v>118956.6341</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>400493.32647606271</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,10 +3112,12 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>280941.45970000001</v>
+        <f t="shared" si="1"/>
+        <v>1030000</v>
       </c>
       <c r="C65">
-        <v>115233.22469999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>406429.24727626215</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,10 +3125,12 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>281030.8922</v>
+        <f t="shared" si="1"/>
+        <v>1040000</v>
       </c>
       <c r="C66">
-        <v>120257.6531</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>404091.05305704486</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,10 +3138,12 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>278132.25820000004</v>
+        <f t="shared" si="1"/>
+        <v>1050000</v>
       </c>
       <c r="C67">
-        <v>120092.9151</v>
+        <f t="shared" ref="B67:C102" ca="1" si="3">400000+10000*RAND()</f>
+        <v>402975.022702983</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +3151,12 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>278215.49470000004</v>
+        <f t="shared" ref="B68:B102" si="4">B67+10000</f>
+        <v>1060000</v>
       </c>
       <c r="C68">
-        <v>112315.6572</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402975.56876332022</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,10 +3164,12 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>278087.38169999997</v>
+        <f t="shared" si="4"/>
+        <v>1070000</v>
       </c>
       <c r="C69">
-        <v>109725.98420000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>400361.49530328426</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,10 +3177,12 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>278271.83259999997</v>
+        <f t="shared" si="4"/>
+        <v>1080000</v>
       </c>
       <c r="C70">
-        <v>112763.43120000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>403989.76230353594</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,10 +3190,12 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>278435.89189999999</v>
+        <f t="shared" si="4"/>
+        <v>1090000</v>
       </c>
       <c r="C71">
-        <v>118410.47009999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>403359.4014977137</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,10 +3203,12 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>278275.14620000002</v>
+        <f t="shared" si="4"/>
+        <v>1100000</v>
       </c>
       <c r="C72">
-        <v>113096.4754</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>400549.57358094584</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,10 +3216,12 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>277987.95080000005</v>
+        <f t="shared" si="4"/>
+        <v>1110000</v>
       </c>
       <c r="C73">
-        <v>114686.519</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>401977.02224978228</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,10 +3229,12 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>278764.424</v>
+        <f t="shared" si="4"/>
+        <v>1120000</v>
       </c>
       <c r="C74">
-        <v>119285.2743</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>408332.8216032706</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,10 +3242,12 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>279240.58490000002</v>
+        <f t="shared" si="4"/>
+        <v>1130000</v>
       </c>
       <c r="C75">
-        <v>112649.7187</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>407474.74515581114</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,10 +3255,12 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>278929.38500000001</v>
+        <f t="shared" si="4"/>
+        <v>1140000</v>
       </c>
       <c r="C76">
-        <v>108013.91769999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>406604.18814162293</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,10 +3268,12 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>279511.04700000002</v>
+        <f t="shared" si="4"/>
+        <v>1150000</v>
       </c>
       <c r="C77">
-        <v>115911.6458</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>409675.58762746071</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,10 +3281,12 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>279698.95910000004</v>
+        <f t="shared" si="4"/>
+        <v>1160000</v>
       </c>
       <c r="C78">
-        <v>118348.6672</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>406565.25864816626</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,10 +3294,12 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>279646.87469999999</v>
+        <f t="shared" si="4"/>
+        <v>1170000</v>
       </c>
       <c r="C79">
-        <v>119196.0661</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>400229.81887249625</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,10 +3307,12 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>279667.02989999996</v>
+        <f t="shared" si="4"/>
+        <v>1180000</v>
       </c>
       <c r="C80">
-        <v>115674.7323</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402187.75294427364</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3097,10 +3320,12 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>279943.60580000002</v>
+        <f t="shared" si="4"/>
+        <v>1190000</v>
       </c>
       <c r="C81">
-        <v>105538.62820000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402215.01186206873</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,10 +3333,12 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>280133.90919999999</v>
+        <f t="shared" si="4"/>
+        <v>1200000</v>
       </c>
       <c r="C82">
-        <v>110475.67479999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>408692.32930206449</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,10 +3346,12 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>280332.55530000001</v>
+        <f t="shared" si="4"/>
+        <v>1210000</v>
       </c>
       <c r="C83">
-        <v>115684.5586</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>409095.29933827638</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,10 +3359,12 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>280097.95860000001</v>
+        <f t="shared" si="4"/>
+        <v>1220000</v>
       </c>
       <c r="C84">
-        <v>115690.11720000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>409348.3710170447</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,10 +3372,12 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>280103.58359999995</v>
+        <f t="shared" si="4"/>
+        <v>1230000</v>
       </c>
       <c r="C85">
-        <v>117743.3207</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402639.19841008272</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,10 +3385,12 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>279888.51799999998</v>
+        <f t="shared" si="4"/>
+        <v>1240000</v>
       </c>
       <c r="C86">
-        <v>114997.23779999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>406731.18130165897</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,10 +3398,12 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>279555.71909999999</v>
+        <f t="shared" si="4"/>
+        <v>1250000</v>
       </c>
       <c r="C87">
-        <v>119922.1254</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>409256.09629802854</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,10 +3411,12 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>279691.91139999998</v>
+        <f t="shared" si="4"/>
+        <v>1260000</v>
       </c>
       <c r="C88">
-        <v>126191.4179</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>407707.18178683118</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,10 +3424,12 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>279560.56160000002</v>
+        <f t="shared" si="4"/>
+        <v>1270000</v>
       </c>
       <c r="C89">
-        <v>112144.0959</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>408606.6178357249</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,10 +3437,12 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>279580.92840000003</v>
+        <f t="shared" si="4"/>
+        <v>1280000</v>
       </c>
       <c r="C90">
-        <v>108453.0616</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>406358.29995227489</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,10 +3450,12 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>279573.06540000002</v>
+        <f t="shared" si="4"/>
+        <v>1290000</v>
       </c>
       <c r="C91">
-        <v>112020.19919999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>403019.44786502008</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,10 +3463,12 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>279200.39379999996</v>
+        <f t="shared" si="4"/>
+        <v>1300000</v>
       </c>
       <c r="C92">
-        <v>119546.8965</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>408223.95216948574</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,10 +3476,12 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>279406.14890000003</v>
+        <f t="shared" si="4"/>
+        <v>1310000</v>
       </c>
       <c r="C93">
-        <v>120712.3012</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402420.26342034189</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,10 +3489,12 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>279571.45819999999</v>
+        <f t="shared" si="4"/>
+        <v>1320000</v>
       </c>
       <c r="C94">
-        <v>111964.8183</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>406691.24685865018</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,10 +3502,12 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>279372.06909999996</v>
+        <f t="shared" si="4"/>
+        <v>1330000</v>
       </c>
       <c r="C95">
-        <v>116805.53690000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402994.15006788837</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,10 +3515,12 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>280743.34649999999</v>
+        <f t="shared" si="4"/>
+        <v>1340000</v>
       </c>
       <c r="C96">
-        <v>124500.23579999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>409204.78136356315</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,10 +3528,12 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>311213.58149999997</v>
+        <f t="shared" si="4"/>
+        <v>1350000</v>
       </c>
       <c r="C97">
-        <v>143171.30379999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>406293.22667167982</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,10 +3541,12 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>366557.3064</v>
+        <f t="shared" si="4"/>
+        <v>1360000</v>
       </c>
       <c r="C98">
-        <v>356886.11440000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>405996.86058092653</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,10 +3554,12 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>292979.77630000003</v>
+        <f t="shared" si="4"/>
+        <v>1370000</v>
       </c>
       <c r="C99">
-        <v>138169.97029999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>407937.36849119351</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,10 +3567,12 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>331576.01610000001</v>
+        <f t="shared" si="4"/>
+        <v>1380000</v>
       </c>
       <c r="C100">
-        <v>169946.9325</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>401076.32158324152</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,10 +3580,12 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>335361.88130000001</v>
+        <f t="shared" si="4"/>
+        <v>1390000</v>
       </c>
       <c r="C101">
-        <v>177068.05869999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>404850.08649406326</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,10 +3593,12 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>343479.83420000004</v>
+        <f t="shared" si="4"/>
+        <v>1400000</v>
       </c>
       <c r="C102">
-        <v>161537.8756</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402748.68459158798</v>
       </c>
     </row>
   </sheetData>
